--- a/data/trans_orig/P16B12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B8F52DB-E91F-4865-A0A0-F8D3AB2152F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D8C4DF-4090-408B-BE20-BD5407C4FB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6968A287-F755-4688-B739-E8924DE6269C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43562A88-E7E1-4CB5-8123-CBC2E11BE0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="181">
   <si>
     <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -106,7 +106,7 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>83,88%</t>
+    <t>88,31%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -115,13 +115,13 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>91,92%</t>
+    <t>91,93%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>16,12%</t>
+    <t>11,69%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -130,7 +130,7 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>8,08%</t>
+    <t>8,07%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -142,13 +142,13 @@
     <t>97,33%</t>
   </si>
   <si>
-    <t>90,33%</t>
+    <t>91,72%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>94,79%</t>
+    <t>95,2%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -157,13 +157,13 @@
     <t>2,67%</t>
   </si>
   <si>
-    <t>9,67%</t>
+    <t>8,28%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>5,21%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -172,7 +172,7 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>82,09%</t>
+    <t>83,68%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -181,13 +181,13 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>91,66%</t>
+    <t>92,36%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>17,91%</t>
+    <t>16,32%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -196,7 +196,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>8,34%</t>
+    <t>7,64%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -205,64 +205,64 @@
     <t>96,63%</t>
   </si>
   <si>
-    <t>89,82%</t>
+    <t>89,7%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>10,18%</t>
+    <t>10,3%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>93,89%</t>
+    <t>94,4%</t>
   </si>
   <si>
     <t>99,02%</t>
@@ -271,19 +271,19 @@
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -292,16 +292,16 @@
     <t>0,98%</t>
   </si>
   <si>
-    <t>6,11%</t>
+    <t>5,6%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -328,13 +328,13 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>86,99%</t>
+    <t>87,02%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>93,52%</t>
+    <t>93,0%</t>
   </si>
   <si>
     <t>4,66%</t>
@@ -343,13 +343,13 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>13,01%</t>
+    <t>12,98%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>7,0%</t>
   </si>
   <si>
     <t>96,86%</t>
@@ -376,13 +376,13 @@
     <t>98,66%</t>
   </si>
   <si>
-    <t>93,56%</t>
+    <t>93,03%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>96,15%</t>
+    <t>95,23%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -391,13 +391,13 @@
     <t>1,34%</t>
   </si>
   <si>
-    <t>6,44%</t>
+    <t>6,97%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,85%</t>
+    <t>4,77%</t>
   </si>
   <si>
     <t>97,61%</t>
@@ -424,169 +424,163 @@
     <t>99,33%</t>
   </si>
   <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
 </sst>
 </file>
@@ -998,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CD1060-C455-4C40-9264-B0E3DE1E3B0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B0BA9E-47DC-476A-9992-B8D20659997B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2061,7 +2055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDBE2E18-5191-4E1E-9514-7383472D4D16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DDCCE-F92F-4E13-B9F0-B2538F2CB86F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2993,7 +2987,7 @@
         <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3047,7 +3041,7 @@
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92ED564-2B65-4DDF-B682-516FE2655FBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBDD260-4E48-4B92-BA78-3410F00ED46F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3746,7 +3740,7 @@
         <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3770,7 +3764,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3785,7 +3779,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3794,13 +3788,13 @@
         <v>955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,7 +3865,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3886,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3901,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3925,7 +3919,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3940,7 +3934,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3955,7 +3949,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,10 +4017,10 @@
         <v>278002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>172</v>
+        <v>21</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4038,10 +4032,10 @@
         <v>272031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4053,13 +4047,13 @@
         <v>550032</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4068,13 @@
         <v>2284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4089,13 +4083,13 @@
         <v>1304</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4104,13 +4098,13 @@
         <v>3589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9D8C4DF-4090-408B-BE20-BD5407C4FB7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEB7E44-920C-4745-9CC2-31CB7447755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43562A88-E7E1-4CB5-8123-CBC2E11BE0A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9B5950D-081F-45A3-B8F4-723F4D00F660}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="185">
   <si>
     <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -100,13 +100,13 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>97,19%</t>
   </si>
   <si>
-    <t>88,31%</t>
+    <t>87,74%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -115,13 +115,13 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>91,93%</t>
+    <t>91,99%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>12,26%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -130,10 +130,10 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>96,76%</t>
@@ -142,13 +142,13 @@
     <t>97,33%</t>
   </si>
   <si>
-    <t>91,72%</t>
+    <t>91,5%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>95,2%</t>
+    <t>94,38%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -157,22 +157,22 @@
     <t>2,67%</t>
   </si>
   <si>
-    <t>8,28%</t>
+    <t>8,5%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>96,8%</t>
   </si>
   <si>
-    <t>83,68%</t>
+    <t>84,12%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -181,13 +181,13 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>92,36%</t>
+    <t>93,09%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>16,32%</t>
+    <t>15,88%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -196,7 +196,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>7,64%</t>
+    <t>6,91%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -205,103 +205,103 @@
     <t>96,63%</t>
   </si>
   <si>
-    <t>89,7%</t>
+    <t>88,14%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>10,3%</t>
+    <t>11,86%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -328,13 +328,13 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>87,02%</t>
+    <t>87,04%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>93,0%</t>
+    <t>94,71%</t>
   </si>
   <si>
     <t>4,66%</t>
@@ -343,13 +343,13 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>12,98%</t>
+    <t>12,96%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>7,0%</t>
+    <t>5,29%</t>
   </si>
   <si>
     <t>96,86%</t>
@@ -376,13 +376,13 @@
     <t>98,66%</t>
   </si>
   <si>
-    <t>93,03%</t>
+    <t>92,32%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>95,23%</t>
+    <t>95,26%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -391,13 +391,13 @@
     <t>1,34%</t>
   </si>
   <si>
-    <t>6,97%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,77%</t>
+    <t>4,74%</t>
   </si>
   <si>
     <t>97,61%</t>
@@ -424,25 +424,31 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,27%</t>
+    <t>97,84%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
+    <t>98,9%</t>
+  </si>
+  <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,73%</t>
+    <t>2,16%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2015 (Tasa respuesta: 7,89%)</t>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>Porcentaje de mecicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -460,37 +466,37 @@
     <t>97,65%</t>
   </si>
   <si>
-    <t>85,95%</t>
+    <t>86,9%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>86,7%</t>
+    <t>88,39%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>92,51%</t>
+    <t>91,39%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>14,05%</t>
+    <t>13,1%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>13,3%</t>
+    <t>11,61%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>7,49%</t>
+    <t>8,61%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -511,7 +517,7 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>92,24%</t>
+    <t>93,26%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -520,7 +526,10 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>7,76%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -529,6 +538,9 @@
     <t>0,74%</t>
   </si>
   <si>
+    <t>3,4%</t>
+  </si>
+  <si>
     <t>97,45%</t>
   </si>
   <si>
@@ -550,16 +562,16 @@
     <t>99,18%</t>
   </si>
   <si>
+    <t>97,21%</t>
+  </si>
+  <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,35%</t>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -568,19 +580,19 @@
     <t>0,82%</t>
   </si>
   <si>
+    <t>2,79%</t>
+  </si>
+  <si>
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,65%</t>
+    <t>1,76%</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B0BA9E-47DC-476A-9992-B8D20659997B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE3965-43F3-48D3-8D47-BA065788808B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2055,7 +2067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DDCCE-F92F-4E13-B9F0-B2538F2CB86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E707ED-5BB6-4FCC-B769-5A76287CF1AD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2987,7 +2999,7 @@
         <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3011,7 +3023,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3020,13 +3032,13 @@
         <v>2017</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3035,13 +3047,13 @@
         <v>2017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,7 +3130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBDD260-4E48-4B92-BA78-3410F00ED46F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA14CC4E-A4D8-459E-AC7D-212F448F190D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3135,7 +3147,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3260,7 +3272,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3275,7 +3287,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3314,7 +3326,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3329,7 +3341,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3397,10 +3409,10 @@
         <v>55133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3412,10 +3424,10 @@
         <v>47073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3427,10 +3439,10 @@
         <v>102205</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3448,13 +3460,13 @@
         <v>1329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3463,13 +3475,13 @@
         <v>1304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3478,13 +3490,13 @@
         <v>2634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,7 +3567,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3570,7 +3582,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3585,7 +3597,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3609,7 +3621,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3624,7 +3636,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3639,7 +3651,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,7 +3722,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3725,7 +3737,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3737,10 +3749,10 @@
         <v>127966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3764,7 +3776,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3779,7 +3791,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3788,13 +3800,13 @@
         <v>955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3877,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3880,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3895,7 +3907,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3919,7 +3931,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3934,7 +3946,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3949,7 +3961,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,10 +4029,10 @@
         <v>278002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>21</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4032,10 +4044,10 @@
         <v>272031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4047,13 +4059,13 @@
         <v>550032</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4080,13 @@
         <v>2284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>26</v>
+        <v>180</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4083,13 +4095,13 @@
         <v>1304</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4098,13 +4110,13 @@
         <v>3589</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DEB7E44-920C-4745-9CC2-31CB7447755C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58747EC9-BE3C-48A7-89B6-F20421498251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9B5950D-081F-45A3-B8F4-723F4D00F660}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61B4DE6E-9FD1-4BF2-8444-5D1901C6E6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="185">
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="183">
+  <si>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -70,7 +70,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -106,7 +106,7 @@
     <t>97,19%</t>
   </si>
   <si>
-    <t>87,74%</t>
+    <t>83,88%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -115,13 +115,13 @@
     <t>98,41%</t>
   </si>
   <si>
-    <t>91,99%</t>
+    <t>91,92%</t>
   </si>
   <si>
     <t>2,81%</t>
   </si>
   <si>
-    <t>12,26%</t>
+    <t>16,12%</t>
   </si>
   <si>
     <t>6,81%</t>
@@ -130,7 +130,7 @@
     <t>1,59%</t>
   </si>
   <si>
-    <t>8,01%</t>
+    <t>8,08%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -142,13 +142,13 @@
     <t>97,33%</t>
   </si>
   <si>
-    <t>91,5%</t>
+    <t>90,33%</t>
   </si>
   <si>
     <t>98,53%</t>
   </si>
   <si>
-    <t>94,38%</t>
+    <t>94,79%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -157,13 +157,13 @@
     <t>2,67%</t>
   </si>
   <si>
-    <t>8,5%</t>
+    <t>9,67%</t>
   </si>
   <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>5,62%</t>
+    <t>5,21%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -172,7 +172,7 @@
     <t>96,8%</t>
   </si>
   <si>
-    <t>84,12%</t>
+    <t>82,09%</t>
   </si>
   <si>
     <t>95,56%</t>
@@ -181,13 +181,13 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>93,09%</t>
+    <t>91,66%</t>
   </si>
   <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>15,88%</t>
+    <t>17,91%</t>
   </si>
   <si>
     <t>4,44%</t>
@@ -196,7 +196,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>6,91%</t>
+    <t>8,34%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -205,109 +205,109 @@
     <t>96,63%</t>
   </si>
   <si>
-    <t>88,14%</t>
+    <t>89,82%</t>
   </si>
   <si>
     <t>94,41%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>95,43%</t>
   </si>
   <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>11,86%</t>
+    <t>10,18%</t>
   </si>
   <si>
     <t>5,59%</t>
   </si>
   <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
   </si>
   <si>
     <t>4,57%</t>
   </si>
   <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
   </si>
   <si>
     <t>97,48%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
   </si>
   <si>
     <t>2,52%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -328,13 +328,13 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>87,04%</t>
+    <t>86,99%</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>94,71%</t>
+    <t>93,52%</t>
   </si>
   <si>
     <t>4,66%</t>
@@ -343,13 +343,13 @@
     <t>2,62%</t>
   </si>
   <si>
-    <t>12,96%</t>
+    <t>13,01%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>5,29%</t>
+    <t>6,48%</t>
   </si>
   <si>
     <t>96,86%</t>
@@ -376,13 +376,13 @@
     <t>98,66%</t>
   </si>
   <si>
-    <t>92,32%</t>
+    <t>93,56%</t>
   </si>
   <si>
     <t>99,23%</t>
   </si>
   <si>
-    <t>95,26%</t>
+    <t>96,15%</t>
   </si>
   <si>
     <t>4,25%</t>
@@ -391,13 +391,13 @@
     <t>1,34%</t>
   </si>
   <si>
-    <t>7,68%</t>
+    <t>6,44%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>3,85%</t>
   </si>
   <si>
     <t>97,61%</t>
@@ -424,31 +424,25 @@
     <t>99,33%</t>
   </si>
   <si>
-    <t>97,84%</t>
+    <t>97,6%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,9%</t>
-  </si>
-  <si>
     <t>0,84%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,16%</t>
+    <t>2,4%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>Porcentaje de mecicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
+    <t>Porcentaje de medicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
   </si>
   <si>
     <t>79,25%</t>
@@ -466,37 +460,37 @@
     <t>97,65%</t>
   </si>
   <si>
-    <t>86,9%</t>
+    <t>88,62%</t>
   </si>
   <si>
     <t>97,3%</t>
   </si>
   <si>
-    <t>88,39%</t>
+    <t>85,98%</t>
   </si>
   <si>
     <t>97,49%</t>
   </si>
   <si>
-    <t>91,39%</t>
+    <t>92,47%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>13,1%</t>
+    <t>11,38%</t>
   </si>
   <si>
     <t>2,7%</t>
   </si>
   <si>
-    <t>11,61%</t>
+    <t>14,02%</t>
   </si>
   <si>
     <t>2,51%</t>
   </si>
   <si>
-    <t>8,61%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -517,7 +511,7 @@
     <t>1,33%</t>
   </si>
   <si>
-    <t>93,26%</t>
+    <t>90,85%</t>
   </si>
   <si>
     <t>96,46%</t>
@@ -526,10 +520,10 @@
     <t>99,26%</t>
   </si>
   <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
   </si>
   <si>
     <t>3,54%</t>
@@ -538,7 +532,7 @@
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,4%</t>
+    <t>3,73%</t>
   </si>
   <si>
     <t>97,45%</t>
@@ -562,37 +556,37 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,21%</t>
+    <t>97,44%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
+    <t>97,64%</t>
+  </si>
+  <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,24%</t>
-  </si>
-  <si>
     <t>99,83%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,48%</t>
   </si>
   <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>0,65%</t>
   </si>
   <si>
     <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DE3965-43F3-48D3-8D47-BA065788808B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68843E03-1293-4D12-97BE-3D5A1FF5BB3F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2067,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E707ED-5BB6-4FCC-B769-5A76287CF1AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5924-72C5-4BA9-892C-86A131B12EA1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2999,7 +2993,7 @@
         <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>11</v>
@@ -3023,7 +3017,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3032,13 +3026,13 @@
         <v>2017</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3047,13 +3041,13 @@
         <v>2017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,7 +3124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA14CC4E-A4D8-459E-AC7D-212F448F190D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA3EBF-BA9D-4478-91DC-250AD4336215}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3147,7 +3141,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3272,7 +3266,7 @@
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -3287,7 +3281,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3326,7 +3320,7 @@
         <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3341,7 +3335,7 @@
         <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,10 +3403,10 @@
         <v>55133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -3424,10 +3418,10 @@
         <v>47073</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>11</v>
@@ -3439,10 +3433,10 @@
         <v>102205</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -3460,13 +3454,13 @@
         <v>1329</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -3475,13 +3469,13 @@
         <v>1304</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -3490,13 +3484,13 @@
         <v>2634</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3561,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -3582,7 +3576,7 @@
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>13</v>
@@ -3597,7 +3591,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3621,7 +3615,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3636,7 +3630,7 @@
         <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M11" s="7">
         <v>0</v>
@@ -3651,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,7 +3716,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>11</v>
@@ -3737,7 +3731,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3749,10 +3743,10 @@
         <v>127966</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -3776,7 +3770,7 @@
         <v>16</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3791,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3800,13 +3794,13 @@
         <v>955</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,7 +3871,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -3892,7 +3886,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
@@ -3907,7 +3901,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -3931,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3946,7 +3940,7 @@
         <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3961,7 +3955,7 @@
         <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +4023,10 @@
         <v>278002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>11</v>
@@ -4044,10 +4038,10 @@
         <v>272031</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>11</v>
@@ -4059,13 +4053,13 @@
         <v>550032</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4074,13 @@
         <v>2284</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4095,13 +4089,13 @@
         <v>1304</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4110,13 +4104,13 @@
         <v>3589</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>183</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16B12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58747EC9-BE3C-48A7-89B6-F20421498251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28027B7A-2E5C-49B9-8473-AC0AB98A73D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{61B4DE6E-9FD1-4BF2-8444-5D1901C6E6C0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8CBBE2E8-27B5-43A5-B9D6-57D27D30932B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="170">
   <si>
     <t>Porcentaje de medicinas para la diabetes recetados en 2007 (Tasa respuesta: 5,99%)</t>
   </si>
@@ -67,70 +67,55 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>76,75%</t>
+    <t>94,55%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>87,39%</t>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>2,34%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>9,87%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -166,7 +151,7 @@
     <t>5,21%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>96,8%</t>
@@ -310,46 +295,34 @@
     <t>Porcentaje de medicinas para la diabetes recetados en 2012 (Tasa respuesta: 7,85%)</t>
   </si>
   <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
   </si>
   <si>
     <t>96,86%</t>
@@ -445,52 +418,40 @@
     <t>Porcentaje de medicinas para la diabetes recetados en 2016 (Tasa respuesta: 7,89%)</t>
   </si>
   <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
   </si>
   <si>
     <t>97,58%</t>
@@ -998,8 +959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68843E03-1293-4D12-97BE-3D5A1FF5BB3F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51DFC19-B422-45D8-9D82-41C67E79CAC6}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1116,10 +1077,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D4" s="7">
-        <v>7223</v>
+        <v>42476</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1131,31 +1092,31 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I4" s="7">
-        <v>5895</v>
+        <v>33675</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N4" s="7">
-        <v>13119</v>
+        <v>76151</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -1164,22 +1125,22 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1188,28 +1149,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1218,153 +1179,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>7223</v>
+        <v>43494</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7">
-        <v>5895</v>
+        <v>33675</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="N6" s="7">
-        <v>13119</v>
+        <v>77169</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>35253</v>
+        <v>59067</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7">
-        <v>27780</v>
+        <v>70154</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="7">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="N7" s="7">
-        <v>63033</v>
+        <v>129221</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1926</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="7">
-        <v>1018</v>
+        <v>1926</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,153 +1334,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="D9" s="7">
-        <v>36271</v>
+        <v>59067</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>27780</v>
+        <v>72080</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="N9" s="7">
-        <v>64051</v>
+        <v>131147</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>59067</v>
+        <v>30112</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>70154</v>
+        <v>40781</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="N10" s="7">
-        <v>129221</v>
+        <v>70893</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>1926</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1926</v>
+        <v>996</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1528,153 +1489,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="D12" s="7">
-        <v>59067</v>
+        <v>31108</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>72080</v>
+        <v>40781</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="N12" s="7">
-        <v>131147</v>
+        <v>71889</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D13" s="7">
-        <v>30112</v>
+        <v>47694</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>40781</v>
+        <v>54478</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="N13" s="7">
-        <v>70893</v>
+        <v>102172</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>996</v>
+        <v>1666</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3225</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>996</v>
+        <v>4890</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,153 +1644,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D15" s="7">
-        <v>31108</v>
+        <v>49360</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>40781</v>
+        <v>57703</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="N15" s="7">
-        <v>71889</v>
+        <v>107062</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>187</v>
       </c>
       <c r="D16" s="7">
-        <v>47694</v>
+        <v>179348</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>194</v>
       </c>
       <c r="I16" s="7">
-        <v>54478</v>
+        <v>199089</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
-        <v>108</v>
+        <v>381</v>
       </c>
       <c r="N16" s="7">
-        <v>102172</v>
+        <v>378438</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1666</v>
+        <v>3680</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3225</v>
+        <v>5150</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>4890</v>
+        <v>8830</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1838,217 +1799,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="D18" s="7">
-        <v>49360</v>
+        <v>183028</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="I18" s="7">
-        <v>57703</v>
+        <v>204239</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>113</v>
+        <v>390</v>
       </c>
       <c r="N18" s="7">
-        <v>107062</v>
+        <v>387268</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>187</v>
-      </c>
-      <c r="D19" s="7">
-        <v>179348</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H19" s="7">
-        <v>194</v>
-      </c>
-      <c r="I19" s="7">
-        <v>199089</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M19" s="7">
-        <v>381</v>
-      </c>
-      <c r="N19" s="7">
-        <v>378438</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>4</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3680</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5150</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="A19" t="s">
         <v>83</v>
       </c>
-      <c r="L20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="M20" s="7">
-        <v>9</v>
-      </c>
-      <c r="N20" s="7">
-        <v>8830</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>191</v>
-      </c>
-      <c r="D21" s="7">
-        <v>183028</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>199</v>
-      </c>
-      <c r="I21" s="7">
-        <v>204239</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>390</v>
-      </c>
-      <c r="N21" s="7">
-        <v>387268</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2061,8 +1866,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9AA5924-72C5-4BA9-892C-86A131B12EA1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC2DDA5-E6CB-42C9-9719-E25CC10F09DC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2078,7 +1883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2179,46 +1984,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>4137</v>
+        <v>48629</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="7">
+        <v>45</v>
+      </c>
+      <c r="I4" s="7">
+        <v>47466</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
         <v>90</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5441</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
       <c r="N4" s="7">
-        <v>9578</v>
+        <v>96095</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2227,7 +2032,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2236,43 +2041,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>92</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,108 +2086,108 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="D6" s="7">
-        <v>4137</v>
+        <v>48629</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>5441</v>
+        <v>48597</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="N6" s="7">
-        <v>9578</v>
+        <v>97226</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>44492</v>
+        <v>65570</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H7" s="7">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I7" s="7">
-        <v>42025</v>
+        <v>82234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>96</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M7" s="7">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="N7" s="7">
-        <v>86517</v>
+        <v>147804</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -2391,43 +2196,43 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1131</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1131</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2436,99 +2241,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>44492</v>
+        <v>65570</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>43156</v>
+        <v>82234</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="N9" s="7">
-        <v>87648</v>
+        <v>147804</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>65570</v>
+        <v>48637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7">
+        <v>61</v>
+      </c>
+      <c r="I10" s="7">
+        <v>64986</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>105</v>
+      </c>
+      <c r="N10" s="7">
+        <v>113622</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="7">
-        <v>76</v>
-      </c>
-      <c r="I10" s="7">
-        <v>82234</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M10" s="7">
-        <v>136</v>
-      </c>
-      <c r="N10" s="7">
-        <v>147804</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -2537,7 +2342,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -2546,43 +2351,43 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>886</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,108 +2396,108 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D12" s="7">
-        <v>65570</v>
+        <v>48637</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I12" s="7">
-        <v>82234</v>
+        <v>65872</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="N12" s="7">
-        <v>147804</v>
+        <v>114508</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D13" s="7">
-        <v>48637</v>
+        <v>85369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="I13" s="7">
-        <v>64986</v>
+        <v>103284</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>105</v>
+        <v>178</v>
       </c>
       <c r="N13" s="7">
-        <v>113622</v>
+        <v>188652</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P13" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -2701,43 +2506,43 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>886</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
-      <c r="N14" s="7">
-        <v>886</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2746,99 +2551,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D15" s="7">
-        <v>48637</v>
+        <v>85369</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I15" s="7">
-        <v>65872</v>
+        <v>103284</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="N15" s="7">
-        <v>114508</v>
+        <v>188652</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="D16" s="7">
-        <v>85369</v>
+        <v>248204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="7">
+        <v>281</v>
+      </c>
+      <c r="I16" s="7">
+        <v>297969</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>509</v>
+      </c>
+      <c r="N16" s="7">
+        <v>546173</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7">
-        <v>99</v>
-      </c>
-      <c r="I16" s="7">
-        <v>103284</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>178</v>
-      </c>
-      <c r="N16" s="7">
-        <v>188652</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>13</v>
@@ -2847,7 +2652,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2856,43 +2661,43 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2017</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,217 +2706,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>79</v>
+        <v>228</v>
       </c>
       <c r="D18" s="7">
-        <v>85369</v>
+        <v>248204</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>99</v>
+        <v>283</v>
       </c>
       <c r="I18" s="7">
-        <v>103284</v>
+        <v>299986</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>178</v>
+        <v>511</v>
       </c>
       <c r="N18" s="7">
-        <v>188652</v>
+        <v>548190</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>228</v>
-      </c>
-      <c r="D19" s="7">
-        <v>248204</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="7">
-        <v>281</v>
-      </c>
-      <c r="I19" s="7">
-        <v>297969</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>509</v>
-      </c>
-      <c r="N19" s="7">
-        <v>546173</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2017</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2017</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>228</v>
-      </c>
-      <c r="D21" s="7">
-        <v>248204</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>283</v>
-      </c>
-      <c r="I21" s="7">
-        <v>299986</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>548190</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3124,8 +2773,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AA3EBF-BA9D-4478-91DC-250AD4336215}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA908B9-746C-427E-AD36-7EDCDD2CA377}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3141,7 +2790,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3242,46 +2891,46 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="D4" s="7">
-        <v>9086</v>
+        <v>64219</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>9469</v>
+        <v>56541</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="N4" s="7">
-        <v>18554</v>
+        <v>120759</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -3290,52 +2939,52 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1329</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>1304</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2634</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3344,153 +2993,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D6" s="7">
-        <v>9086</v>
+        <v>65548</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="I6" s="7">
-        <v>9469</v>
+        <v>57845</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="N6" s="7">
-        <v>18554</v>
+        <v>123393</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D7" s="7">
-        <v>55133</v>
+        <v>77720</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7">
+        <v>65</v>
+      </c>
+      <c r="I7" s="7">
+        <v>77529</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="L7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="7">
+        <v>143</v>
+      </c>
+      <c r="N7" s="7">
+        <v>155249</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="7">
-        <v>44</v>
-      </c>
-      <c r="I7" s="7">
-        <v>47073</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="7">
-        <v>99</v>
-      </c>
-      <c r="N7" s="7">
-        <v>102205</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>1329</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="7">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
-        <v>2634</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,99 +3148,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>56462</v>
+        <v>77720</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>48377</v>
+        <v>77529</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M9" s="7">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="N9" s="7">
-        <v>104839</v>
+        <v>155249</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>77720</v>
+        <v>67894</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>77529</v>
+        <v>60072</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M10" s="7">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="N10" s="7">
-        <v>155249</v>
+        <v>127966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>13</v>
@@ -3600,22 +3249,22 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -3624,28 +3273,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>955</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,123 +3303,123 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="D12" s="7">
-        <v>77720</v>
+        <v>68849</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>77529</v>
+        <v>60072</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M12" s="7">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="N12" s="7">
-        <v>155249</v>
+        <v>128921</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D13" s="7">
-        <v>67894</v>
+        <v>68169</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I13" s="7">
-        <v>60072</v>
+        <v>77889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M13" s="7">
-        <v>115</v>
+        <v>140</v>
       </c>
       <c r="N13" s="7">
-        <v>127966</v>
+        <v>146057</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>159</v>
+        <v>13</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="7">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3779,28 +3428,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <v>955</v>
+        <v>0</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>163</v>
+        <v>20</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,153 +3458,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D15" s="7">
-        <v>68849</v>
+        <v>68169</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H15" s="7">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I15" s="7">
-        <v>60072</v>
+        <v>77889</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M15" s="7">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="N15" s="7">
-        <v>128921</v>
+        <v>146057</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="D16" s="7">
-        <v>68169</v>
+        <v>278002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>66</v>
+        <v>236</v>
       </c>
       <c r="I16" s="7">
-        <v>77889</v>
+        <v>272031</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>140</v>
+        <v>515</v>
       </c>
       <c r="N16" s="7">
-        <v>146057</v>
+        <v>550032</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>2284</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1304</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3589</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="7">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,217 +3613,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>68169</v>
+        <v>280286</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="I18" s="7">
-        <v>77889</v>
+        <v>273335</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
-        <v>140</v>
+        <v>518</v>
       </c>
       <c r="N18" s="7">
-        <v>146057</v>
+        <v>553621</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>279</v>
-      </c>
-      <c r="D19" s="7">
-        <v>278002</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>236</v>
-      </c>
-      <c r="I19" s="7">
-        <v>272031</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>515</v>
-      </c>
-      <c r="N19" s="7">
-        <v>550032</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2284</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1304</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3589</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>281</v>
-      </c>
-      <c r="D21" s="7">
-        <v>280286</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>237</v>
-      </c>
-      <c r="I21" s="7">
-        <v>273335</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>518</v>
-      </c>
-      <c r="N21" s="7">
-        <v>553621</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
+      <c r="A19" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
